--- a/data/capo7506_activity_Y2023.xlsx
+++ b/data/capo7506_activity_Y2023.xlsx
@@ -1,26 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbnostix\Documents\Accounting\2023\capo7506\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2752320-022A-450B-AC6A-B5C2E5102227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E84EB6C-1430-484A-A1D9-7CFF2030C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2565" windowWidth="26100" windowHeight="12060"/>
+    <workbookView xWindow="2580" yWindow="840" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="capo_activity_Y2023" sheetId="1" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId1"/>
+    <sheet name="capo_activity_Y2023" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">capo_activity_Y2023!$A$1:$G$192</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="23" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="100">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -287,12 +307,45 @@
   </si>
   <si>
     <t>NILSEN EYE CARE</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Web Services</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Com puter</t>
+  </si>
+  <si>
+    <t>EV Charge</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools </t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Debit</t>
+  </si>
+  <si>
+    <t>Sum of Credit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -770,9 +823,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -829,6 +887,1913 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lpres" refreshedDate="45551.642915393517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="191" xr:uid="{1CB357B9-BFD9-4A0D-A73A-16718C19D8A7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G192" sheet="capo_activity_Y2023"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Transaction Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-03T00:00:00" maxDate="2023-12-29T00:00:00"/>
+    </cacheField>
+    <cacheField name="Posted Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-04T00:00:00" maxDate="2023-12-29T00:00:00"/>
+    </cacheField>
+    <cacheField name="Card No." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2032" maxValue="7506"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="19">
+        <s v="Payment/Credit"/>
+        <s v="Internet"/>
+        <s v="Health Care"/>
+        <s v="Software"/>
+        <s v="Professional Services"/>
+        <s v="Web Services"/>
+        <s v="Dining"/>
+        <s v="Merchandise"/>
+        <s v="Entertainment"/>
+        <s v="Tools "/>
+        <s v="Other"/>
+        <s v="Gas/Automotive"/>
+        <s v="Phone/Cable"/>
+        <s v="Subscription"/>
+        <s v="EV Charge"/>
+        <s v="Other Services"/>
+        <s v="Insurance"/>
+        <s v="Com puter"/>
+        <s v="Electronics"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Debit" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="1694.94"/>
+    </cacheField>
+    <cacheField name="Credit" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.69" maxValue="3201.71"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="191">
+  <r>
+    <d v="2023-12-28T00:00:00"/>
+    <d v="2023-12-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="816.86"/>
+  </r>
+  <r>
+    <d v="2023-12-27T00:00:00"/>
+    <d v="2023-12-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="1"/>
+    <n v="13.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <d v="2023-12-23T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="34.299999999999997"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <d v="2023-12-16T00:00:00"/>
+    <n v="7506"/>
+    <s v="MUSESCORE PRO"/>
+    <x v="3"/>
+    <n v="29.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <d v="2023-12-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <d v="2023-12-13T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="8.34"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <d v="2023-12-11T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-06T00:00:00"/>
+    <d v="2023-12-07T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-28T00:00:00"/>
+    <d v="2023-11-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="961.29"/>
+  </r>
+  <r>
+    <d v="2023-11-27T00:00:00"/>
+    <d v="2023-11-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="5"/>
+    <n v="13.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-23T00:00:00"/>
+    <d v="2023-11-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="SCRIBD 621517832"/>
+    <x v="1"/>
+    <n v="119.88"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-18T00:00:00"/>
+    <d v="2023-11-20T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="1.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-17T00:00:00"/>
+    <d v="2023-11-20T00:00:00"/>
+    <n v="7506"/>
+    <s v="FREDDY'S 32-0001"/>
+    <x v="6"/>
+    <n v="10.74"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-17T00:00:00"/>
+    <d v="2023-11-18T00:00:00"/>
+    <n v="7506"/>
+    <s v="Goodwill CCVA -Centervill"/>
+    <x v="7"/>
+    <n v="9.81"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-16T00:00:00"/>
+    <d v="2023-11-16T00:00:00"/>
+    <n v="7506"/>
+    <s v="Microsoft*Microsoft 365 F"/>
+    <x v="8"/>
+    <n v="99.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-14T00:00:00"/>
+    <d v="2023-11-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="534.01"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-14T00:00:00"/>
+    <d v="2023-11-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-10T00:00:00"/>
+    <d v="2023-11-13T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *MINERVATECHNOLOGI"/>
+    <x v="1"/>
+    <n v="10.47"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-09T00:00:00"/>
+    <d v="2023-11-09T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-11-08T00:00:00"/>
+    <d v="2023-11-08T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-30T00:00:00"/>
+    <d v="2023-10-31T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="6.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-28T00:00:00"/>
+    <d v="2023-10-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="963.76"/>
+  </r>
+  <r>
+    <d v="2023-10-27T00:00:00"/>
+    <d v="2023-10-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="8"/>
+    <n v="13.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-24T00:00:00"/>
+    <d v="2023-10-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *TORUJ4"/>
+    <x v="7"/>
+    <n v="888"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-23T00:00:00"/>
+    <d v="2023-10-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="SCRIBD"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-23T00:00:00"/>
+    <d v="2023-10-23T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="4.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-22T00:00:00"/>
+    <d v="2023-10-23T00:00:00"/>
+    <n v="7506"/>
+    <s v="POPEYES 11396"/>
+    <x v="6"/>
+    <n v="19.350000000000001"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-14T00:00:00"/>
+    <d v="2023-10-16T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-08T00:00:00"/>
+    <d v="2023-10-09T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-10-08T00:00:00"/>
+    <d v="2023-10-09T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-30T00:00:00"/>
+    <d v="2023-10-02T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="6.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-28T00:00:00"/>
+    <d v="2023-09-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="473.49"/>
+  </r>
+  <r>
+    <d v="2023-09-27T00:00:00"/>
+    <d v="2023-09-28T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="5.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-27T00:00:00"/>
+    <d v="2023-09-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="1"/>
+    <n v="13.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-25T00:00:00"/>
+    <d v="2023-09-26T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="20.87"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-23T00:00:00"/>
+    <d v="2023-09-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="SCRIBD"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-22T00:00:00"/>
+    <d v="2023-09-23T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="4.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-20T00:00:00"/>
+    <d v="2023-09-21T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *CHANCEJONES METAP"/>
+    <x v="9"/>
+    <n v="11.66"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-19T00:00:00"/>
+    <d v="2023-09-19T00:00:00"/>
+    <n v="7506"/>
+    <s v="GITHUB, INC."/>
+    <x v="1"/>
+    <n v="48"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-14T00:00:00"/>
+    <d v="2023-09-16T00:00:00"/>
+    <n v="7506"/>
+    <s v="BURGER KING #3536"/>
+    <x v="6"/>
+    <n v="10.59"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-14T00:00:00"/>
+    <d v="2023-09-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-08T00:00:00"/>
+    <d v="2023-09-09T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="38.04"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-09T00:00:00"/>
+    <d v="2023-09-09T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-07T00:00:00"/>
+    <d v="2023-09-08T00:00:00"/>
+    <n v="7506"/>
+    <s v="KOHL'S #1401"/>
+    <x v="7"/>
+    <n v="23.42"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-05T00:00:00"/>
+    <d v="2023-09-06T00:00:00"/>
+    <n v="7506"/>
+    <s v="LLEWELLYNS TOWING &amp; RE"/>
+    <x v="11"/>
+    <n v="763.24"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-09-01T00:00:00"/>
+    <d v="2023-09-02T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="4.97"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-30T00:00:00"/>
+    <d v="2023-08-31T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="6.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-28T00:00:00"/>
+    <d v="2023-08-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="424.68"/>
+  </r>
+  <r>
+    <d v="2023-08-27T00:00:00"/>
+    <d v="2023-08-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="1"/>
+    <n v="13.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-24T00:00:00"/>
+    <d v="2023-08-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOVDEALS"/>
+    <x v="7"/>
+    <n v="23.85"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-23T00:00:00"/>
+    <d v="2023-08-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="SCRIBD"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-23T00:00:00"/>
+    <d v="2023-08-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOVDEALS"/>
+    <x v="7"/>
+    <n v="47.7"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-23T00:00:00"/>
+    <d v="2023-08-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOVDEALS"/>
+    <x v="7"/>
+    <n v="107.33"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-21T00:00:00"/>
+    <d v="2023-08-22T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-17T00:00:00"/>
+    <d v="2023-08-18T00:00:00"/>
+    <n v="7506"/>
+    <s v="ATL WENDY'S"/>
+    <x v="6"/>
+    <n v="14.4"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-17T00:00:00"/>
+    <d v="2023-08-18T00:00:00"/>
+    <n v="7506"/>
+    <s v="RIC PARKING"/>
+    <x v="11"/>
+    <n v="96"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-16T00:00:00"/>
+    <d v="2023-08-17T00:00:00"/>
+    <n v="7506"/>
+    <s v="POPEYES 4625"/>
+    <x v="6"/>
+    <n v="40.56"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-14T00:00:00"/>
+    <d v="2023-08-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-13T00:00:00"/>
+    <d v="2023-08-14T00:00:00"/>
+    <n v="7506"/>
+    <s v="Roku for Peacock TV LLC"/>
+    <x v="12"/>
+    <n v="4.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-11T00:00:00"/>
+    <d v="2023-08-12T00:00:00"/>
+    <n v="7506"/>
+    <s v="EXXON HADENSVILLE MARKET"/>
+    <x v="11"/>
+    <n v="20.49"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-11T00:00:00"/>
+    <d v="2023-08-12T00:00:00"/>
+    <n v="7506"/>
+    <s v="EXXON HADENSVILLE MARKET"/>
+    <x v="11"/>
+    <n v="61.24"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-09T00:00:00"/>
+    <d v="2023-08-10T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-02T00:00:00"/>
+    <d v="2023-08-03T00:00:00"/>
+    <n v="2032"/>
+    <s v="E Z PASS VA WEB"/>
+    <x v="11"/>
+    <n v="210"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-08-01T00:00:00"/>
+    <d v="2023-08-02T00:00:00"/>
+    <n v="7506"/>
+    <s v="NO-IP"/>
+    <x v="1"/>
+    <n v="59.9"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-30T00:00:00"/>
+    <d v="2023-07-31T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="6.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-30T00:00:00"/>
+    <d v="2023-07-31T00:00:00"/>
+    <n v="7506"/>
+    <s v="CHESSCLUB.COM"/>
+    <x v="1"/>
+    <n v="39.950000000000003"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-28T00:00:00"/>
+    <d v="2023-07-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="1662.07"/>
+  </r>
+  <r>
+    <d v="2023-07-27T00:00:00"/>
+    <d v="2023-07-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="8"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-23T00:00:00"/>
+    <d v="2023-07-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="Scribd Inc"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-14T00:00:00"/>
+    <d v="2023-07-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-13T00:00:00"/>
+    <d v="2023-07-13T00:00:00"/>
+    <n v="7506"/>
+    <s v="Roku for Peacock TV LLC"/>
+    <x v="12"/>
+    <n v="4.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-10T00:00:00"/>
+    <d v="2023-07-11T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *BESTIRPRICE"/>
+    <x v="7"/>
+    <n v="34.979999999999997"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-09T00:00:00"/>
+    <d v="2023-07-10T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-05T00:00:00"/>
+    <d v="2023-07-06T00:00:00"/>
+    <n v="7506"/>
+    <s v="NO-IP"/>
+    <x v="1"/>
+    <n v="39.9"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-07-01T00:00:00"/>
+    <d v="2023-07-03T00:00:00"/>
+    <n v="7506"/>
+    <s v="THE HOME DEPOT #4631"/>
+    <x v="7"/>
+    <m/>
+    <n v="29.69"/>
+  </r>
+  <r>
+    <d v="2023-06-28T00:00:00"/>
+    <d v="2023-06-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="3201.71"/>
+  </r>
+  <r>
+    <d v="2023-06-27T00:00:00"/>
+    <d v="2023-06-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="8"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-26T00:00:00"/>
+    <d v="2023-06-27T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="3.2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-26T00:00:00"/>
+    <d v="2023-06-27T00:00:00"/>
+    <n v="7506"/>
+    <s v="BATTERIES PLUS #318"/>
+    <x v="7"/>
+    <m/>
+    <n v="57.24"/>
+  </r>
+  <r>
+    <d v="2023-06-25T00:00:00"/>
+    <d v="2023-06-27T00:00:00"/>
+    <n v="7506"/>
+    <s v="FIVE GUYS 1985"/>
+    <x v="6"/>
+    <n v="30.53"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-24T00:00:00"/>
+    <d v="2023-06-26T00:00:00"/>
+    <n v="7506"/>
+    <s v="THE HOME DEPOT #4611"/>
+    <x v="7"/>
+    <n v="36.630000000000003"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-23T00:00:00"/>
+    <d v="2023-06-26T00:00:00"/>
+    <n v="7506"/>
+    <s v="Scribd Inc"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-22T00:00:00"/>
+    <d v="2023-06-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="THE HOME DEPOT #4631"/>
+    <x v="7"/>
+    <n v="70.31"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-22T00:00:00"/>
+    <d v="2023-06-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="LOWES #00113*"/>
+    <x v="7"/>
+    <m/>
+    <n v="48.02"/>
+  </r>
+  <r>
+    <d v="2023-06-21T00:00:00"/>
+    <d v="2023-06-22T00:00:00"/>
+    <n v="7506"/>
+    <s v="BATTERIES PLUS #318"/>
+    <x v="7"/>
+    <n v="396.42"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-21T00:00:00"/>
+    <d v="2023-06-22T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *TIMEUSALLC"/>
+    <x v="13"/>
+    <m/>
+    <n v="8.69"/>
+  </r>
+  <r>
+    <d v="2023-06-20T00:00:00"/>
+    <d v="2023-06-21T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="9.7100000000000009"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-20T00:00:00"/>
+    <d v="2023-06-21T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="29.81"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-20T00:00:00"/>
+    <d v="2023-06-21T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="2.61"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-19T00:00:00"/>
+    <d v="2023-06-20T00:00:00"/>
+    <n v="7506"/>
+    <s v="Tesla Inc Supercharger"/>
+    <x v="14"/>
+    <n v="13.53"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-17T00:00:00"/>
+    <d v="2023-06-19T00:00:00"/>
+    <n v="7506"/>
+    <s v="PANERA BREAD #600780 P"/>
+    <x v="6"/>
+    <n v="14.61"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-17T00:00:00"/>
+    <d v="2023-06-19T00:00:00"/>
+    <n v="7506"/>
+    <s v="SIM STORE HAZY"/>
+    <x v="7"/>
+    <n v="25"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-15T00:00:00"/>
+    <d v="2023-06-17T00:00:00"/>
+    <n v="7506"/>
+    <s v="ALDI 80034"/>
+    <x v="7"/>
+    <n v="2.02"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-15T00:00:00"/>
+    <d v="2023-06-17T00:00:00"/>
+    <n v="7506"/>
+    <s v="LOWES #00738*"/>
+    <x v="7"/>
+    <n v="48.02"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-15T00:00:00"/>
+    <d v="2023-06-17T00:00:00"/>
+    <n v="7506"/>
+    <s v="ARBY S 7293"/>
+    <x v="6"/>
+    <n v="12.95"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-16T00:00:00"/>
+    <d v="2023-06-17T00:00:00"/>
+    <n v="7506"/>
+    <s v="Tesla"/>
+    <x v="14"/>
+    <n v="250"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-15T00:00:00"/>
+    <d v="2023-06-16T00:00:00"/>
+    <n v="7506"/>
+    <s v="BRUNSWICK COMBINED DISTRI"/>
+    <x v="10"/>
+    <n v="458.64"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-14T00:00:00"/>
+    <d v="2023-06-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-13T00:00:00"/>
+    <d v="2023-06-14T00:00:00"/>
+    <n v="7506"/>
+    <s v="Goodwill CCVA - Alverser"/>
+    <x v="7"/>
+    <n v="20"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-12T00:00:00"/>
+    <d v="2023-06-13T00:00:00"/>
+    <n v="7506"/>
+    <s v="MCDONALD'S F33622"/>
+    <x v="6"/>
+    <n v="4.83"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-11T00:00:00"/>
+    <d v="2023-06-12T00:00:00"/>
+    <n v="2032"/>
+    <s v="TMOBILE*AUTO PAY"/>
+    <x v="12"/>
+    <n v="6.33"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-10T00:00:00"/>
+    <d v="2023-06-12T00:00:00"/>
+    <n v="7506"/>
+    <s v="FIESTA GRANDE"/>
+    <x v="6"/>
+    <n v="18.03"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-09T00:00:00"/>
+    <d v="2023-06-10T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-04T00:00:00"/>
+    <d v="2023-06-05T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="14.1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-03T00:00:00"/>
+    <d v="2023-06-05T00:00:00"/>
+    <n v="2032"/>
+    <s v="THE HOME DEPOT 4631"/>
+    <x v="7"/>
+    <n v="310.45999999999998"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-01T00:00:00"/>
+    <d v="2023-06-03T00:00:00"/>
+    <n v="2032"/>
+    <s v="BLACK MTNBURGER CO"/>
+    <x v="6"/>
+    <n v="43.07"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-06-01T00:00:00"/>
+    <d v="2023-06-02T00:00:00"/>
+    <n v="7506"/>
+    <s v="ONE LOVE BREWERY"/>
+    <x v="6"/>
+    <n v="95.21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-30T00:00:00"/>
+    <d v="2023-06-01T00:00:00"/>
+    <n v="7506"/>
+    <s v="7-ELEVEN 37390"/>
+    <x v="11"/>
+    <n v="18.48"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-28T00:00:00"/>
+    <d v="2023-05-29T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="333.95"/>
+  </r>
+  <r>
+    <d v="2023-05-27T00:00:00"/>
+    <d v="2023-05-29T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-26T00:00:00"/>
+    <d v="2023-05-27T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-26T00:00:00"/>
+    <d v="2023-05-27T00:00:00"/>
+    <n v="2032"/>
+    <s v="LLEWELLYNS TOWING &amp; RE"/>
+    <x v="11"/>
+    <n v="123.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-25T00:00:00"/>
+    <d v="2023-05-27T00:00:00"/>
+    <n v="7506"/>
+    <s v="THE HOME DEPOT #4631"/>
+    <x v="9"/>
+    <n v="163.24"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-25T00:00:00"/>
+    <d v="2023-05-26T00:00:00"/>
+    <n v="7506"/>
+    <s v="LOWES #00113*"/>
+    <x v="9"/>
+    <n v="417.6"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-23T00:00:00"/>
+    <d v="2023-05-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="Scribd Inc"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-22T00:00:00"/>
+    <d v="2023-05-22T00:00:00"/>
+    <n v="7506"/>
+    <s v="Etsy.com - CZGrain"/>
+    <x v="7"/>
+    <n v="13.76"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-19T00:00:00"/>
+    <d v="2023-05-20T00:00:00"/>
+    <n v="7506"/>
+    <s v="VA DMV CHESTERFIELD CSC"/>
+    <x v="15"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-19T00:00:00"/>
+    <d v="2023-05-20T00:00:00"/>
+    <n v="7506"/>
+    <s v="VA DMV CHESTERFIELD CSC"/>
+    <x v="15"/>
+    <n v="534.25"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-18T00:00:00"/>
+    <d v="2023-05-19T00:00:00"/>
+    <n v="7506"/>
+    <s v="FIESTA GRANDE"/>
+    <x v="6"/>
+    <n v="33"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-15T00:00:00"/>
+    <d v="2023-05-16T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="59.64"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-15T00:00:00"/>
+    <d v="2023-05-16T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="11.78"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-15T00:00:00"/>
+    <d v="2023-05-16T00:00:00"/>
+    <n v="7506"/>
+    <s v="PANDA EXPRESS #2796"/>
+    <x v="6"/>
+    <n v="20.78"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-14T00:00:00"/>
+    <d v="2023-05-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-11T00:00:00"/>
+    <d v="2023-05-12T00:00:00"/>
+    <n v="2032"/>
+    <s v="NATL GEN INS*NPS4W"/>
+    <x v="16"/>
+    <n v="465"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-11T00:00:00"/>
+    <d v="2023-05-12T00:00:00"/>
+    <n v="2032"/>
+    <s v="TMOBILE*AUTO PAY"/>
+    <x v="12"/>
+    <n v="70"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-09T00:00:00"/>
+    <d v="2023-05-10T00:00:00"/>
+    <n v="2032"/>
+    <s v="E Z PASS VA WEB"/>
+    <x v="11"/>
+    <n v="175"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-09T00:00:00"/>
+    <d v="2023-05-10T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-05T00:00:00"/>
+    <d v="2023-05-05T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/US"/>
+    <x v="3"/>
+    <n v="104.94"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-05-02T00:00:00"/>
+    <d v="2023-05-04T00:00:00"/>
+    <n v="7506"/>
+    <s v="VERIZON WRLS D6214-01"/>
+    <x v="7"/>
+    <n v="800"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-28T00:00:00"/>
+    <d v="2023-04-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="2207.92"/>
+  </r>
+  <r>
+    <d v="2023-04-27T00:00:00"/>
+    <d v="2023-04-28T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="109.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-27T00:00:00"/>
+    <d v="2023-04-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="8"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-23T00:00:00"/>
+    <d v="2023-04-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="Scribd Inc"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-16T00:00:00"/>
+    <d v="2023-04-17T00:00:00"/>
+    <n v="7506"/>
+    <s v="CURIOSITYSTREAM"/>
+    <x v="12"/>
+    <n v="19.989999999999998"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-15T00:00:00"/>
+    <d v="2023-04-17T00:00:00"/>
+    <n v="7506"/>
+    <s v="RING PROTECT PLUS YR"/>
+    <x v="7"/>
+    <n v="106"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-14T00:00:00"/>
+    <d v="2023-04-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-11T00:00:00"/>
+    <d v="2023-04-12T00:00:00"/>
+    <n v="2032"/>
+    <s v="TMOBILE*AUTO PAY"/>
+    <x v="12"/>
+    <n v="70"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-08T00:00:00"/>
+    <d v="2023-04-10T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-04-01T00:00:00"/>
+    <d v="2023-04-03T00:00:00"/>
+    <n v="7506"/>
+    <s v="COSTCO WHSE #1089"/>
+    <x v="2"/>
+    <n v="259.98"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-31T00:00:00"/>
+    <d v="2023-03-31T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="6.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-28T00:00:00"/>
+    <d v="2023-03-29T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="5.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-28T00:00:00"/>
+    <d v="2023-03-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="1603.9"/>
+  </r>
+  <r>
+    <d v="2023-03-28T00:00:00"/>
+    <d v="2023-03-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/US"/>
+    <x v="17"/>
+    <n v="1694.94"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-27T00:00:00"/>
+    <d v="2023-03-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="12"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-23T00:00:00"/>
+    <d v="2023-03-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="Scribd Inc"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-23T00:00:00"/>
+    <d v="2023-03-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="NYTimes*NYTimes disc"/>
+    <x v="15"/>
+    <n v="4"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-22T00:00:00"/>
+    <d v="2023-03-23T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="65.06"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-14T00:00:00"/>
+    <d v="2023-03-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-12T00:00:00"/>
+    <d v="2023-03-13T00:00:00"/>
+    <n v="2032"/>
+    <s v="PHO SAIGON GARDEN"/>
+    <x v="6"/>
+    <n v="69.790000000000006"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-11T00:00:00"/>
+    <d v="2023-03-13T00:00:00"/>
+    <n v="2032"/>
+    <s v="TMOBILE*AUTO PAY"/>
+    <x v="12"/>
+    <n v="70"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-10T00:00:00"/>
+    <d v="2023-03-11T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="3.2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-08T00:00:00"/>
+    <d v="2023-03-09T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-28T00:00:00"/>
+    <d v="2023-03-03T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="11.77"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-01T00:00:00"/>
+    <d v="2023-03-02T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="14.1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-03-01T00:00:00"/>
+    <d v="2023-03-02T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="6.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-28T00:00:00"/>
+    <d v="2023-03-01T00:00:00"/>
+    <n v="2032"/>
+    <s v="COSTCO WHSE #1089"/>
+    <x v="7"/>
+    <n v="1165.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-28T00:00:00"/>
+    <d v="2023-02-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="1369.48"/>
+  </r>
+  <r>
+    <d v="2023-02-27T00:00:00"/>
+    <d v="2023-02-28T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-27T00:00:00"/>
+    <d v="2023-02-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="12"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-24T00:00:00"/>
+    <d v="2023-02-27T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *HOME DEPOT"/>
+    <x v="9"/>
+    <n v="54.52"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-24T00:00:00"/>
+    <d v="2023-02-27T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *HOME DEPOT"/>
+    <x v="9"/>
+    <n v="168.54"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-23T00:00:00"/>
+    <d v="2023-02-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="Scribd Inc"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-23T00:00:00"/>
+    <d v="2023-02-24T00:00:00"/>
+    <n v="7506"/>
+    <s v="NYTimes*NYTimes disc"/>
+    <x v="15"/>
+    <n v="4"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-14T00:00:00"/>
+    <d v="2023-02-15T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-11T00:00:00"/>
+    <d v="2023-02-13T00:00:00"/>
+    <n v="2032"/>
+    <s v="TMOBILE*AUTO PAY"/>
+    <x v="12"/>
+    <n v="70"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-10T00:00:00"/>
+    <d v="2023-02-11T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="38.909999999999997"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-10T00:00:00"/>
+    <d v="2023-02-11T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="8.24"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-09T00:00:00"/>
+    <d v="2023-02-10T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-02-03T00:00:00"/>
+    <d v="2023-02-04T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #01549"/>
+    <x v="2"/>
+    <n v="17.87"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-30T00:00:00"/>
+    <d v="2023-01-31T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="4.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-30T00:00:00"/>
+    <d v="2023-01-30T00:00:00"/>
+    <n v="7506"/>
+    <s v="CHESSCLUB.COM"/>
+    <x v="1"/>
+    <n v="39.950000000000003"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-28T00:00:00"/>
+    <d v="2023-01-30T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #01549"/>
+    <x v="2"/>
+    <n v="2.2200000000000002"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-28T00:00:00"/>
+    <d v="2023-01-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="CAPITAL ONE AUTOPAY PYMT"/>
+    <x v="0"/>
+    <m/>
+    <n v="339.1"/>
+  </r>
+  <r>
+    <d v="2023-01-27T00:00:00"/>
+    <d v="2023-01-28T00:00:00"/>
+    <n v="7506"/>
+    <s v="GOOGLE *YouTubePremium"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-26T00:00:00"/>
+    <d v="2023-01-27T00:00:00"/>
+    <n v="7506"/>
+    <s v="NYTimes*NYTimes disc"/>
+    <x v="15"/>
+    <n v="4"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-25T00:00:00"/>
+    <d v="2023-01-26T00:00:00"/>
+    <n v="7506"/>
+    <s v="PAYPAL *TIMEUSALLC"/>
+    <x v="15"/>
+    <n v="19.989999999999998"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-23T00:00:00"/>
+    <d v="2023-01-25T00:00:00"/>
+    <n v="7506"/>
+    <s v="Scribd Inc"/>
+    <x v="1"/>
+    <n v="11.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-20T00:00:00"/>
+    <d v="2023-01-21T00:00:00"/>
+    <n v="7506"/>
+    <s v="LLEWELLYNS TOWING &amp; RE"/>
+    <x v="11"/>
+    <n v="640.77"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-19T00:00:00"/>
+    <d v="2023-01-20T00:00:00"/>
+    <n v="2032"/>
+    <s v="SOUTHERN STATES MIDLOTHIA"/>
+    <x v="10"/>
+    <n v="44.11"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-14T00:00:00"/>
+    <d v="2023-01-16T00:00:00"/>
+    <n v="7506"/>
+    <s v="ROCKETLAW 877-757-1550"/>
+    <x v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-13T00:00:00"/>
+    <d v="2023-01-14T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="24.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-12T00:00:00"/>
+    <d v="2023-01-14T00:00:00"/>
+    <n v="7506"/>
+    <s v="CATHAY GOURMET"/>
+    <x v="6"/>
+    <n v="63.87"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-13T00:00:00"/>
+    <d v="2023-01-14T00:00:00"/>
+    <n v="7506"/>
+    <s v="Bose Corporation"/>
+    <x v="18"/>
+    <n v="131.44"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-12T00:00:00"/>
+    <d v="2023-01-13T00:00:00"/>
+    <n v="7506"/>
+    <s v="COSTCO GAS #1089"/>
+    <x v="11"/>
+    <n v="29.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-11T00:00:00"/>
+    <d v="2023-01-12T00:00:00"/>
+    <n v="2032"/>
+    <s v="TMOBILE*AUTO PAY"/>
+    <x v="12"/>
+    <n v="85.39"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-09T00:00:00"/>
+    <d v="2023-01-11T00:00:00"/>
+    <n v="2032"/>
+    <s v="NILSEN EYE CARE"/>
+    <x v="2"/>
+    <n v="49"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-09T00:00:00"/>
+    <d v="2023-01-11T00:00:00"/>
+    <n v="7506"/>
+    <s v="NILSEN EYE CARE"/>
+    <x v="2"/>
+    <n v="172.82"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-08T00:00:00"/>
+    <d v="2023-01-09T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="2.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-06T00:00:00"/>
+    <d v="2023-01-07T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <m/>
+    <n v="15.33"/>
+  </r>
+  <r>
+    <d v="2023-01-06T00:00:00"/>
+    <d v="2023-01-07T00:00:00"/>
+    <n v="7506"/>
+    <s v="APPLE.COM/BILL"/>
+    <x v="3"/>
+    <n v="29.99"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-01-03T00:00:00"/>
+    <d v="2023-01-04T00:00:00"/>
+    <n v="2032"/>
+    <s v="CVS/PHARMACY #02193"/>
+    <x v="2"/>
+    <n v="13.66"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF72568-E623-4889-A8C9-4E3078BCA907}" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="17"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Debit" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Credit" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,10 +3112,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98DD69E-B234-478B-9D81-DFC6E218009E}">
+  <dimension ref="A3:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1694.94</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>502.31</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4">
+        <v>131.44</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="4">
+        <v>263.52999999999997</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2138.86</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1319.61</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4">
+        <v>465</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>543.90000000000009</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4129.7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>134.95000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
+        <v>778.31999999999994</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4">
+        <v>575.24</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>14358.210000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4">
+        <v>425.67</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4">
+        <v>320.66000000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="4">
+        <v>815.56</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="4">
+        <v>14280.68</v>
+      </c>
+      <c r="C23" s="4">
+        <v>14517.180000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G192"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1259,7 +3443,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F5">
         <v>29.99</v>
@@ -1319,7 +3503,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F8">
         <v>2.99</v>
@@ -1339,7 +3523,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>11.99</v>
@@ -1379,7 +3563,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>13.99</v>
@@ -1419,7 +3603,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F13">
         <v>1.99</v>
@@ -1559,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F20">
         <v>2.99</v>
@@ -1579,7 +3763,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F21">
         <v>11.99</v>
@@ -1599,7 +3783,7 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F22">
         <v>6.99</v>
@@ -1699,7 +3883,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <v>4.99</v>
@@ -1759,7 +3943,7 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F30">
         <v>2.99</v>
@@ -1779,7 +3963,7 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F31">
         <v>11.99</v>
@@ -1799,7 +3983,7 @@
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F32">
         <v>6.99</v>
@@ -1919,7 +4103,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F38">
         <v>4.99</v>
@@ -1939,7 +4123,7 @@
         <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F39">
         <v>11.66</v>
@@ -2039,7 +4223,7 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F44">
         <v>2.99</v>
@@ -2119,7 +4303,7 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F48">
         <v>6.99</v>
@@ -2419,7 +4603,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F63">
         <v>2.99</v>
@@ -2479,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F66">
         <v>6.99</v>
@@ -2639,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F74">
         <v>2.99</v>
@@ -2899,7 +5083,7 @@
         <v>53</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G87">
         <v>8.69</v>
@@ -2978,6 +5162,9 @@
       <c r="D91" t="s">
         <v>54</v>
       </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
       <c r="F91">
         <v>13.53</v>
       </c>
@@ -3096,7 +5283,7 @@
         <v>60</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F97">
         <v>250</v>
@@ -3236,7 +5423,7 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F104">
         <v>2.99</v>
@@ -3436,7 +5623,7 @@
         <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F114">
         <v>163.24</v>
@@ -3456,7 +5643,7 @@
         <v>52</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F115">
         <v>417.6</v>
@@ -3716,7 +5903,7 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F128">
         <v>2.99</v>
@@ -3736,7 +5923,7 @@
         <v>76</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F129">
         <v>104.94</v>
@@ -3936,7 +6123,7 @@
         <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F139">
         <v>2.99</v>
@@ -3976,7 +6163,7 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F141">
         <v>6.99</v>
@@ -4036,7 +6223,7 @@
         <v>76</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F144">
         <v>1694.94</v>
@@ -4216,7 +6403,7 @@
         <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F153">
         <v>2.99</v>
@@ -4276,7 +6463,7 @@
         <v>17</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F156">
         <v>6.99</v>
@@ -4376,7 +6563,7 @@
         <v>83</v>
       </c>
       <c r="E161" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F161">
         <v>54.52</v>
@@ -4396,7 +6583,7 @@
         <v>83</v>
       </c>
       <c r="E162" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F162">
         <v>168.54</v>
@@ -4536,7 +6723,7 @@
         <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F169">
         <v>2.99</v>
@@ -4576,7 +6763,7 @@
         <v>17</v>
       </c>
       <c r="E171" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F171">
         <v>4.99</v>
@@ -4696,7 +6883,7 @@
         <v>53</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F177">
         <v>19.989999999999998</v>
@@ -4796,7 +6983,7 @@
         <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F182">
         <v>24.99</v>
@@ -4836,7 +7023,7 @@
         <v>86</v>
       </c>
       <c r="E184" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F184">
         <v>131.44</v>
@@ -4936,7 +7123,7 @@
         <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F189">
         <v>2.99</v>
@@ -4956,7 +7143,7 @@
         <v>17</v>
       </c>
       <c r="E190" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G190">
         <v>15.33</v>
@@ -4976,7 +7163,7 @@
         <v>17</v>
       </c>
       <c r="E191" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F191">
         <v>29.99</v>
